--- a/src/main/resources/templates/taxreporterrordataImportTemplate.xlsx
+++ b/src/main/resources/templates/taxreporterrordataImportTemplate.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>OU</t>
   </si>
@@ -90,6 +90,10 @@
   </si>
   <si>
     <t>budgetDepartmentCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误信息</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -111,9 +115,7 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-    &lt;1&gt;Excel中红色字段为必填字段,黑色字段为选填或有条件必填字段
-    &lt;2&gt;请勿修改下列表格格式
-    &lt;3&gt;请注意输入框中的弹框提醒说明</t>
+    &lt;1&gt;请勿修改下列表格格式</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -188,7 +190,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -211,12 +213,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -231,6 +244,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -539,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -555,22 +569,22 @@
     <col min="6" max="6" width="29.5" customWidth="1"/>
     <col min="7" max="7" width="0.375" customWidth="1"/>
     <col min="8" max="8" width="24.5" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="15.375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="0.375" customWidth="1"/>
     <col min="10" max="10" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+    <row r="1" spans="1:11" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -602,7 +616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -633,8 +647,11 @@
       <c r="J3" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="K3" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -646,7 +663,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="8"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -665,16 +682,16 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="10">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提醒：" prompt="必填，请依次输入序号，序号为正整数，不能重复" sqref="A1:A1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提醒：" prompt="必填，请输入公司代码" sqref="B1:B1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提醒：" prompt="必填，请输入税种名称" sqref="C1:C1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提醒：" prompt="必填，请输入申报期间，格式为XXXX-XX" sqref="D1:D1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提醒：" prompt="必填，请输入申报金额，保留2位小数" sqref="E1:E1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提醒：" prompt="必填，请输入会计科目名称" sqref="F1:F1048576"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" promptTitle="提醒：" prompt="必填，请依次输入序号，序号为正整数，不能重复" sqref="A1:A1048576"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" promptTitle="提醒：" prompt="必填，请输入公司代码" sqref="B1:B1048576"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" promptTitle="提醒：" prompt="必填，请输入税种名称" sqref="C1:C1048576"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" promptTitle="提醒：" prompt="必填，请输入申报期间，格式为XXXX-XX" sqref="D1:D1048576"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" promptTitle="提醒：" prompt="必填，请输入申报金额，保留2位小数" sqref="E1:E1048576"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" promptTitle="提醒：" prompt="必填，请输入会计科目名称" sqref="F1:F1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提醒：" prompt="非必填，请输入预算部门代码" sqref="G1:G1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提醒：" prompt="非必填，请输入受益部门代码" sqref="H1:H1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提醒：" prompt="非必填，请输入地方代码" sqref="I1:I1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提醒：" prompt="必填，请输入会计科目代码" sqref="J1:J1048576"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" promptTitle="提醒：" prompt="必填，请输入会计科目代码" sqref="J1:J1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
